--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-measurereport.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-measurereport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:25:04+00:00</t>
+    <t>2024-02-07T09:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-measurereport.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-measurereport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:30:33+00:00</t>
+    <t>2024-02-21T11:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -566,7 +566,7 @@
     <t>MeasureReport.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Location|Device|RelatedPerson|Group)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location)
 </t>
   </si>
   <si>
@@ -608,7 +608,7 @@
     <t>MeasureReport.reporter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Location|Organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
 </t>
   </si>
   <si>
@@ -1304,7 +1304,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2438,7 +2438,7 @@
         <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>74</v>
@@ -2656,7 +2656,7 @@
         <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>74</v>
@@ -2764,7 +2764,7 @@
         <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>74</v>
@@ -2980,7 +2980,7 @@
         <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>74</v>
@@ -3194,7 +3194,7 @@
         <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>74</v>
@@ -3840,7 +3840,7 @@
         <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>74</v>
@@ -4702,7 +4702,7 @@
         <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>74</v>
